--- a/data/company.xlsx
+++ b/data/company.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>company_id</t>
   </si>
@@ -64,13 +64,27 @@
   </si>
   <si>
     <t>Türk Hava Yolları Genel Yönetim Binası  Atatürk Havalimanı Yeşilköy 34149 İstanbul Türkiye</t>
+  </si>
+  <si>
+    <t>Boeing</t>
+  </si>
+  <si>
+    <t>1301 Southwest 16th Street Renton / WA 98055 USA</t>
+  </si>
+  <si>
+    <t>B80 Building
+2 rond-point Dewoitine BP 90112
+31703 Blagnac Cedex - FRANCE</t>
+  </si>
+  <si>
+    <t>Airbus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +106,12 @@
       <color rgb="FFE5C07B"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF5F6A72"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,12 +143,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,6 +556,34 @@
       </c>
       <c r="D7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>161133</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="150">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>133671</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
